--- a/vue.js정리.xlsx
+++ b/vue.js정리.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">vue.js는 웹 페이지 화면을 개발하기 위한 프론트엔드 프레임워크이다. vue.js는 여타 다른 프론트엔드 프레임워크보다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,89 +38,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">이러한 방식으로 개발하는 이유는 화면의 요소들을 제어하는 코드와 데이터 제어 로직을 분리하여 코드를 더 직관적으로 </t>
+  </si>
+  <si>
+    <t>이해할 수 있고, 추후 유지 보수가 편해진다.</t>
+  </si>
+  <si>
+    <t>컴포넌트 기반 프레임워크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰가 가지는 또 하나의 큰 특징은 바로 컴포넌트 기반 프레임워크라는 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">컴포넌트란 레고 블록을 조합하는 것과 비슷하다. 즉, 화면을 왼쪽 같이 구성을 하면 오른쪽과 같은 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">컴포넌트 트리 구조를 가지게 되는 것이다. 이러한 컴포넌트 기반의 프레임워크를 사용함으로써 코드의 </t>
+  </si>
+  <si>
+    <t>재사용성이 향상되며 직관적인 화면 구조를 갖게 되는 것이다.</t>
+  </si>
+  <si>
+    <t>리액트와 앵귤러의 장점을 가진 프레임워크</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰는 앵귤러의 양방향 데이터 바인딩과 리액트의 단방향 데이터 흐름의 장점을 모두 결합한 프레임워크이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">양방향 데이터 바인딩이란 화면에 표시되는 값과 프레임워크의 모델 데이터 값이 동기화되어 한쪽이 변경되면 </t>
+  </si>
+  <si>
+    <t>다른 한쪽도 자동으로 값이 변경되는 것을 의미한다. 단방향 데이터 흐름은 컴포넌트의 단방향 통신을 의미한</t>
+  </si>
+  <si>
+    <t>다. 즉, 컴포넌트 간에 데이터를 전달할 때 항상 상위 컴포넌트에서 하위 컴포넌트 한 방향으로만 전달하게끔 프</t>
+  </si>
+  <si>
+    <t>레임워크가 구조화되어 있는 것을 말한다.</t>
+  </si>
+  <si>
+    <t>뷰(View)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자에게 보이는 화면 </t>
+  </si>
+  <si>
+    <t>돔(DOM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML 문서에 들어가는 요소(태그,클래스,속성 등)의 정보를 담고 있는 데이터 트리 </t>
+  </si>
+  <si>
+    <t>돔 리스너(DOM Listener)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">돔의 변경 내역에 대해 즉각적으로 반응하여 특정 로직을 수행하는 장치 </t>
+  </si>
+  <si>
+    <t>모델(Model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터를 담는 용기. 보통은 서버에서 가져온 데이터를 자바스크립트 객체 형태로 저장 </t>
+  </si>
+  <si>
+    <t>데이터 바인딩(Data Binding)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰(View)에 표시되는 내용과 모델의 데이터를 동기화 </t>
+  </si>
+  <si>
+    <t>뷰 모델(ViewModel)</t>
+  </si>
+  <si>
+    <t>뷰와 모델의 중간 영역. 돔 리스너와 데이터 바인딩을 제공하는 영역</t>
+  </si>
+  <si>
+    <t xml:space="preserve">용어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Vue.js 인스턴스&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰 인스턴스는 뷰로 화면을 개발하기 위해 필수적으로 생성해야 하는 기본 단위이다. </t>
+  </si>
+  <si>
+    <t>즉 뷰로 화면을 개발하기 위해 빠트릴 수 없는 필수 조건이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰 인스턴스 옵션 속성은 인스턴스를 생성할 때 재정의할 data, el, template 등의 속성을 의미한다. </t>
+  </si>
+  <si>
+    <t>뷰 인스턴스 옵션 속성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">화면에 표시할 HTML, CSS 등의 마크업 요소를 정의하는 속성. 뷰의 데이터 및 기타 속성들도 함께 화면에 그릴 수 있다. </t>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">화면 로직 제어와 관계된 메소드를 정의하는 속성. 마우스 클릭 이벤트 처리와 같이 화면의 전반적인 이벤트와 화면 동작과 관련된 로직을 추가 할 수 있다. </t>
+  </si>
+  <si>
+    <t>created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 인스턴스가 생성되자마자 실행할 로직을 정의할 수 있는 속성. 뷰 인스턴스의 라이프 사이클과 관련된 속성이다. created 이외에 많은 라이프 사이클 훅을 정의할 수 있는 옵션이 존재한다.</t>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 Vue 인스턴스에는 el,data,template 등의 속성이 선언되어 있지만 우리가 뷰 인스턴스를 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 때 해당 옵션들을 재정의 할 수 있다는 것이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;head&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;title&gt;Vue Sample&lt;/title&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/head&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;body&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;div id="app"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {{message}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;script src="https://cdn.jsdelivr.net/npm/vue@2.5.2/dist/vue.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        new Vue({</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          el:'#app',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          data:{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            message: 'Hello Vue.js !'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/body&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 인스턴스의 유효 범위</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰 인스턴스를 생성하면 HTML의 특정 범위 안에서만 옵션 속성들이 적용되어 나타난다. </t>
+  </si>
+  <si>
+    <t>이를 인스턴스의 유효 범위라고 한다. 뷰 인스턴스의 유효범위는 el 속성과 밀접한 관계가 있다.</t>
+  </si>
+  <si>
+    <t>뷰 인스턴스의 유효 범위를 이해하려면 실제로 인스턴스의 라이플 사이클을 이해할 필요가 있다.</t>
+  </si>
+  <si>
+    <t>el 속성에 해당하는 특정 돔 요소에 뷰 인스턴스가 부착되고 나면 인스턴스에 정의한 data 속성이 el 속성</t>
+  </si>
+  <si>
+    <t>에 지정한 특정 돔 요소에 값이 적용되고 화면의 {{message}}가 'Hello Vue.js !'라는 텍스트로 치환된다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">만약 &lt;div id="app"&gt;&lt;/div&gt; 안에 있는 {{message}}를 해당 태그 밖으로 빼면 {{message}}라는 문자열이 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">그대로 화면에 출력되는 것이 보일 것이다. app이라는 아이디를 가진 특정 돔 요소에서 벗어나 버리면 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰 인스턴스에 정의한 data를 사용할 수가 없는 것이다. 이것이 바로 뷰 인스턴스의 유효범위이다. </t>
+  </si>
+  <si>
+    <t>자바스크립트 코드 상에서 인스턴스 옵션 속성 el과 data를 인스턴스에 정의하고 인스턴스를 생성하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저에서 코드를 실행시키면 el 속성에 지정된 HTML의 특정 돔요소에 인스턴스가 부착된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 인스턴스 라이프 사이클</t>
+  </si>
+  <si>
+    <t>인스턴스의 상태에 따라 호출할 수 있는 속성들을 라이프 사이클 속성이라고 한다. 그리고 각 라</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이프 사이클 속성에서 실행되는 커스텀 로직을 라이프 사이클 훅이라고 한다. </t>
+  </si>
+  <si>
+    <t>beforeUpdate, updated 사이클은 데이터의 변경이 없다면 지나지 않는 라이프 사이클임을 주의하자.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MVVM 패턴이란 화면을 모델(Model) - 뷰(View) - 뷰 모델(ViewModel)로 구조화하여 개발하는 방식을 의미한다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">이러한 방식으로 개발하는 이유는 화면의 요소들을 제어하는 코드와 데이터 제어 로직을 분리하여 코드를 더 직관적으로 </t>
-  </si>
-  <si>
-    <t>이해할 수 있고, 추후 유지 보수가 편해진다.</t>
-  </si>
-  <si>
-    <t>컴포넌트 기반 프레임워크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뷰가 가지는 또 하나의 큰 특징은 바로 컴포넌트 기반 프레임워크라는 것이다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">컴포넌트란 레고 블록을 조합하는 것과 비슷하다. 즉, 화면을 왼쪽 같이 구성을 하면 오른쪽과 같은 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">컴포넌트 트리 구조를 가지게 되는 것이다. 이러한 컴포넌트 기반의 프레임워크를 사용함으로써 코드의 </t>
-  </si>
-  <si>
-    <t>재사용성이 향상되며 직관적인 화면 구조를 갖게 되는 것이다.</t>
-  </si>
-  <si>
-    <t>리액트와 앵귤러의 장점을 가진 프레임워크</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뷰는 앵귤러의 양방향 데이터 바인딩과 리액트의 단방향 데이터 흐름의 장점을 모두 결합한 프레임워크이다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">양방향 데이터 바인딩이란 화면에 표시되는 값과 프레임워크의 모델 데이터 값이 동기화되어 한쪽이 변경되면 </t>
-  </si>
-  <si>
-    <t>다른 한쪽도 자동으로 값이 변경되는 것을 의미한다. 단방향 데이터 흐름은 컴포넌트의 단방향 통신을 의미한</t>
-  </si>
-  <si>
-    <t>다. 즉, 컴포넌트 간에 데이터를 전달할 때 항상 상위 컴포넌트에서 하위 컴포넌트 한 방향으로만 전달하게끔 프</t>
-  </si>
-  <si>
-    <t>레임워크가 구조화되어 있는 것을 말한다.</t>
-  </si>
-  <si>
-    <t>뷰(View)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사용자에게 보이는 화면 </t>
-  </si>
-  <si>
-    <t>돔(DOM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML 문서에 들어가는 요소(태그,클래스,속성 등)의 정보를 담고 있는 데이터 트리 </t>
-  </si>
-  <si>
-    <t>돔 리스너(DOM Listener)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">돔의 변경 내역에 대해 즉각적으로 반응하여 특정 로직을 수행하는 장치 </t>
-  </si>
-  <si>
-    <t>모델(Model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터를 담는 용기. 보통은 서버에서 가져온 데이터를 자바스크립트 객체 형태로 저장 </t>
-  </si>
-  <si>
-    <t>데이터 바인딩(Data Binding)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">뷰(View)에 표시되는 내용과 모델의 데이터를 동기화 </t>
-  </si>
-  <si>
-    <t>뷰 모델(ViewModel)</t>
-  </si>
-  <si>
-    <t>뷰와 모델의 중간 영역. 돔 리스너와 데이터 바인딩을 제공하는 영역</t>
-  </si>
-  <si>
-    <t xml:space="preserve">용어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +300,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +325,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,13 +391,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,9 +496,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,6 +685,168 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="17878425"/>
+          <a:ext cx="5210175" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="800100" y="16449675"/>
+          <a:ext cx="5495925" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>183302</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>131120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869102" y="27298649"/>
+          <a:ext cx="6293698" cy="4474521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -668,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B73"/>
+  <dimension ref="B2:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,72 +1181,191 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="15"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="15"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -786,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+      <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,58 +1392,90 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -861,14 +1485,267 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>